--- a/攻略ガイドまとめ.xlsx
+++ b/攻略ガイドまとめ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
   <si>
     <t>言語一般</t>
   </si>
@@ -539,6 +539,523 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>1. 品詞</t>
+    <rPh sb="3" eb="5">
+      <t>ヒンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動詞</t>
+    <rPh sb="0" eb="2">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形容詞</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名詞</t>
+    <rPh sb="0" eb="2">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>副詞</t>
+    <rPh sb="0" eb="2">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連体詞</t>
+    <rPh sb="0" eb="3">
+      <t>レンタイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続詞</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感動詞</t>
+    <rPh sb="0" eb="3">
+      <t>カンドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助動詞</t>
+    <rPh sb="0" eb="3">
+      <t>ジョドウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助詞</t>
+    <rPh sb="0" eb="2">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>格助詞</t>
+    <rPh sb="0" eb="3">
+      <t>カクジョシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取立助詞</t>
+    <rPh sb="0" eb="2">
+      <t>トリタテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並列助詞</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続助詞</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>が、を、に、で、と、へ、から、より、まで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>と、なら、のに、が、けれど、ため、ので、から、し</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>断定</t>
+    <rPh sb="0" eb="2">
+      <t>ダンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>推定</t>
+    <rPh sb="0" eb="2">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝聞</t>
+    <rPh sb="0" eb="2">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非断定</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ダンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確信</t>
+    <rPh sb="0" eb="2">
+      <t>カクシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>義務</t>
+    <rPh sb="0" eb="2">
+      <t>ギム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だ、です</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>らしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だろう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はずだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>べきだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>措定文、指定文、うなぎ文</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ形容詞</t>
+    <rPh sb="1" eb="4">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナ形容詞</t>
+    <rPh sb="1" eb="4">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>属性形容詞</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>感情形容詞</t>
+    <rPh sb="0" eb="2">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>否定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連用</t>
+    <rPh sb="0" eb="2">
+      <t>レンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辞書</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連体</t>
+    <rPh sb="0" eb="2">
+      <t>レンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テ形</t>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タ形</t>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タリ形</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タラ形</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バ形</t>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kunai</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>katta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kattari</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kattara</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kereba</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>denai</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ni</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>da</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>de</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>datta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dattari</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dattara</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deareba</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辞書形、マス形、ナイ形、タ形</t>
+    <rPh sb="0" eb="2">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音素　/ /  (発音できない抽象的単位？？）</t>
+    <rPh sb="0" eb="2">
+      <t>オンソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツオン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異音 [ｇ]と[(鼻濁音のｶﾞ)]</t>
+    <rPh sb="0" eb="2">
+      <t>イオン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ビダクオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハ・へ・ホ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形態素　{  } (意味を担う最小単位）</t>
+    <rPh sb="0" eb="3">
+      <t>ケイタイソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自由形態素</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイタイソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拘束形態素</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイタイソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形態素｛kasa｝ -&gt;　音形 /kasa/  /gasa/ （｛kasa｝という形態素の異形態）</t>
+    <rPh sb="0" eb="3">
+      <t>ケイタイソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ケイタイソ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            「あめふり」、「あまやどり」、「きりさめ」に含まれる「あめ」、「あま」、「さめ」は同じ「雨」という意味を持つ形態素に属している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　（抽象的なレベルのもの）</t>
+    <rPh sb="6" eb="9">
+      <t>チュウショウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +1089,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -736,11 +1253,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -760,6 +1348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1043,10 +1637,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:O81"/>
+  <dimension ref="B4:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1100,13 +1694,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1119,7 +1715,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1132,16 +1728,20 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1150,18 +1750,16 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1174,14 +1772,12 @@
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1192,14 +1788,16 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1211,13 +1809,16 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1229,13 +1830,17 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1247,13 +1852,17 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1265,13 +1874,17 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1284,14 +1897,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1304,14 +1919,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1320,18 +1937,20 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1344,15 +1963,15 @@
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1367,14 +1986,14 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
+      <c r="F20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1389,12 +2008,14 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>20</v>
+      <c r="F21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1410,12 +2031,8 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1427,10 +2044,10 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1445,10 +2062,10 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1463,10 +2080,10 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1481,10 +2098,10 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1498,11 +2115,11 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1515,120 +2132,154 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1637,29 +2288,39 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1667,44 +2328,52 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1713,12 +2382,14 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1727,13 +2398,15 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -1743,45 +2416,55 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
-      <c r="C45" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1789,13 +2472,19 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1803,11 +2492,13 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1819,99 +2510,109 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1919,33 +2620,37 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="E55" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1953,14 +2658,16 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -1969,15 +2676,15 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1985,16 +2692,16 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2003,16 +2710,18 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2021,13 +2730,19 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2035,145 +2750,119 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
-    </row>
-    <row r="61" spans="2:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
       <c r="M61" s="6"/>
-    </row>
-    <row r="62" spans="2:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="6"/>
+      <c r="L62" s="5"/>
       <c r="M62" s="6"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>70</v>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L63" s="6"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
       <c r="M63" s="6"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>75</v>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="6"/>
+      <c r="L64" s="5"/>
       <c r="M64" s="6"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
       <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2183,11 +2872,15 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="6"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2197,11 +2890,15 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2211,11 +2908,15 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2225,54 +2926,64 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="6"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="6"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2284,7 +2995,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2298,9 +3009,11 @@
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2312,57 +3025,779 @@
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="6"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="9"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="2:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="2:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="9"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="8" scale="95" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="74" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
